--- a/NFES_Review/_weightVScons.xlsx
+++ b/NFES_Review/_weightVScons.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\NFES_Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53CAB1E-6EC1-4B8B-9DE9-C958513D92F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCABEC94-F3CA-4DCC-9AF2-9437A34DA6A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="1020" windowWidth="16335" windowHeight="11385" xr2:uid="{257EF4C4-23DC-41CA-B233-C9469FC7ABC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{257EF4C4-23DC-41CA-B233-C9469FC7ABC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C960E15-BEA9-461C-A782-AD909AFAD04D}" type="CELLRANGE">
+                    <a:fld id="{15EB6C76-EF43-4CE3-845D-898B77078443}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -559,7 +559,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EEB7AF47-5C81-4394-8FA5-A9BF22182AB3}" type="CELLRANGE">
+                    <a:fld id="{17A8B499-05CF-4D63-A171-43281B254208}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -597,7 +597,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4D1C353-1F60-4A90-BE95-C90CFAD79788}" type="CELLRANGE">
+                    <a:fld id="{9974D2CC-9C61-43D4-AE80-94F22DEB142E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -635,7 +635,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90468128-1CFE-418A-B906-F972CD2500BD}" type="CELLRANGE">
+                    <a:fld id="{42DCF43D-44FB-468A-A062-28A47184F050}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -673,7 +673,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3204C1A4-D596-43A0-A3E6-410817292947}" type="CELLRANGE">
+                    <a:fld id="{BAB8A043-E6AA-48F5-B42D-96F7CF2BBF3E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -711,7 +711,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E828FAA-DC2A-46FB-9C6D-5F3F6CFA9E35}" type="CELLRANGE">
+                    <a:fld id="{6EE503D1-127D-4AA3-A46D-B2D7FF245BBF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -743,7 +743,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C0EE8E3-4DAD-468B-823C-9D3554A5B271}" type="CELLRANGE">
+                    <a:fld id="{E079A4B0-539F-4293-B8E4-0B64B0361864}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -820,7 +820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BD39F8B-D056-43BF-9A74-FF392E707D9B}" type="CELLRANGE">
+                    <a:fld id="{93D33AE8-21DB-4A78-AEF1-AEC965DAB64C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -858,7 +858,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA6D004E-ABC8-4CF3-8486-FAA94476D3B6}" type="CELLRANGE">
+                    <a:fld id="{44381452-5CDB-4CBE-9F64-3B9275CE1412}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -896,7 +896,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17FEA3EB-422B-4D43-8EF9-B2DA2E64127E}" type="CELLRANGE">
+                    <a:fld id="{776200DB-04CA-49A0-8912-598748BC61BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -934,7 +934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C15EC7B4-BA8A-46FC-BA1E-40CCCAADA7EB}" type="CELLRANGE">
+                    <a:fld id="{1F0205C8-D69B-46B9-BBB4-16E889C14905}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -972,7 +972,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF268658-6AF4-43AE-A53B-76BC6A560933}" type="CELLRANGE">
+                    <a:fld id="{800DA5B7-798C-4F6A-8CD0-ABD90955AF42}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1010,7 +1010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{993CD24D-8B2B-4807-96CA-B7178343257D}" type="CELLRANGE">
+                    <a:fld id="{37BC0890-C3E5-40C4-B799-6E34B0FE11BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1515,7 +1515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B4E9709C-D682-4B9A-8F51-D52FD9579AA7}" type="CELLRANGE">
+                    <a:fld id="{667A6DD8-5CEF-4894-A24C-0050CF095B70}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1553,7 +1553,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{64CECCC0-DFD1-47AA-8698-3CF75417BA26}" type="CELLRANGE">
+                    <a:fld id="{656B0F6F-6908-4ED0-85EF-A892EB87F237}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3092,8 +3092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33050BF9-30EE-4B25-89E8-D0C2AB98776D}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
